--- a/BoM/Positional/t1-bom.xlsx
+++ b/BoM/Positional/t1-bom.xlsx
@@ -517,7 +517,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>6.0.5+dfsg-1~bpo11+1</t>
+    <t>6.0.7+dfsg-1~bpo11+1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -601,7 +601,7 @@
     <t>BLM21PG221SN1D</t>
   </si>
   <si>
-    <t>http://search.murata.co.jp/Ceramy/image/img/PDF/ENG/L0110S0100BLM21P.pdf</t>
+    <t>https://www.murata.com/en-eu/api/pdfdownloadapi?cate=cgsubChipFerriBead&amp;partno=BLM21PG221SN1%23</t>
   </si>
   <si>
     <t>-90.6780</t>

--- a/BoM/Positional/t1-bom.xlsx
+++ b/BoM/Positional/t1-bom.xlsx
@@ -517,7 +517,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>6.0.7+dfsg-1~bpo11+1</t>
+    <t>6.0.8+dfsg-1~bpo11+1</t>
   </si>
   <si>
     <t>Component Groups:</t>

--- a/BoM/Positional/t1-bom.xlsx
+++ b/BoM/Positional/t1-bom.xlsx
@@ -517,7 +517,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>6.0.10+dfsg-1~bpo11+1</t>
+    <t>6.0.11+dfsg-1~bpo11+1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -913,7 +913,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -928,7 +928,16 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -956,7 +965,7 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -971,7 +980,16 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1749,7 +1767,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="30.0" customHeight="1">
+    <row r="13" spans="1:22" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>72</v>
       </c>
@@ -1885,7 +1903,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="45.0" customHeight="1">
+    <row r="15" spans="1:22" ht="45" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>94</v>
       </c>
@@ -1953,7 +1971,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="30.0" customHeight="1">
+    <row r="16" spans="1:22" ht="30" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>108</v>
       </c>
@@ -2021,7 +2039,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="30.0" customHeight="1">
+    <row r="17" spans="1:22" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>119</v>
       </c>
@@ -2636,7 +2654,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="30.0" customHeight="1">
+    <row r="11" spans="1:22" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
@@ -2704,7 +2722,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="45.0" customHeight="1">
+    <row r="12" spans="1:22" ht="45" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
@@ -2772,7 +2790,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="45.0" customHeight="1">
+    <row r="13" spans="1:22" ht="45" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>72</v>
       </c>

--- a/BoM/Positional/t1-bom.xlsx
+++ b/BoM/Positional/t1-bom.xlsx
@@ -517,7 +517,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>6.0.11+dfsg-1</t>
+    <t>7.0.9-7.0.9~ubuntu23.04.1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -2335,7 +2335,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="44.7109375" customWidth="1"/>

--- a/BoM/Positional/t1-bom.xlsx
+++ b/BoM/Positional/t1-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="229">
   <si>
     <t>Row</t>
   </si>
@@ -91,7 +91,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Unpolarized capacitor</t>
+    <t/>
   </si>
   <si>
     <t>C</t>
@@ -175,9 +175,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>Polarized capacitor</t>
-  </si>
-  <si>
     <t>C_Polarized</t>
   </si>
   <si>
@@ -205,9 +202,6 @@
     <t>2.5000</t>
   </si>
   <si>
-    <t>Diode</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -241,9 +235,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>Light emitting diode</t>
-  </si>
-  <si>
     <t>LED</t>
   </si>
   <si>
@@ -271,9 +262,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>DC Barrel Jack with an internal switch</t>
-  </si>
-  <si>
     <t>Barrel_Jack_Switch</t>
   </si>
   <si>
@@ -307,9 +295,6 @@
     <t>7</t>
   </si>
   <si>
-    <t>Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
     <t>Conn_02x03_Odd_Even</t>
   </si>
   <si>
@@ -349,9 +334,6 @@
     <t>8</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x05, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
     <t>Conn_01x05_Male</t>
   </si>
   <si>
@@ -382,9 +364,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x06, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
     <t>Conn_01x06_Male</t>
   </si>
   <si>
@@ -409,9 +388,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>Resistor</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -454,9 +430,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>16MHz, 8kB Flash, 512B SRAM, 512B EEPROM, TQFP-32</t>
-  </si>
-  <si>
     <t>ATmega8U2-A</t>
   </si>
   <si>
@@ -517,7 +490,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>7.0.9-7.0.9~ubuntu23.04.1</t>
+    <t>8.0.1+dfsg-1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -562,9 +535,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>Resettable fuse, polymeric positive temperature coefficient</t>
-  </si>
-  <si>
     <t>Polyfuse</t>
   </si>
   <si>
@@ -589,9 +559,6 @@
     <t>3.4000</t>
   </si>
   <si>
-    <t>Ferrite bead</t>
-  </si>
-  <si>
     <t>FerriteBead</t>
   </si>
   <si>
@@ -607,9 +574,6 @@
     <t>-90.6780</t>
   </si>
   <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
     <t>Conn_02x02_Odd_Even</t>
   </si>
   <si>
@@ -628,9 +592,6 @@
     <t>-95.2500</t>
   </si>
   <si>
-    <t>USB Type B connector</t>
-  </si>
-  <si>
     <t>USB_B</t>
   </si>
   <si>
@@ -682,9 +643,6 @@
     <t>-75.8780</t>
   </si>
   <si>
-    <t>Voltage dependent resistor</t>
-  </si>
-  <si>
     <t>Varistor</t>
   </si>
   <si>
@@ -710,9 +668,6 @@
   </si>
   <si>
     <t>0.9500</t>
-  </si>
-  <si>
-    <t>Two pin crystal</t>
   </si>
   <si>
     <t>Crystal</t>
@@ -790,7 +745,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -811,7 +766,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6F9FF"/>
+        <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,19 +778,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF0FFF4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0FFFF"/>
+        <fgColor rgb="FFFF8A8A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,7 +796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8A8A"/>
+        <fgColor rgb="FFE6F9FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,7 +813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -899,9 +848,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,8 +867,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1464384</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16584</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
@@ -973,8 +919,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1464384</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16584</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
@@ -1310,7 +1256,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
@@ -1323,19 +1269,16 @@
     <col min="12" max="12" width="60.7109375" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" customWidth="1"/>
+    <col min="15" max="16" width="21.7109375" customWidth="1"/>
     <col min="17" max="17" width="23.7109375" customWidth="1"/>
-    <col min="18" max="18" width="24.7109375" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" customWidth="1"/>
+    <col min="18" max="19" width="24.7109375" customWidth="1"/>
     <col min="20" max="20" width="28.7109375" customWidth="1"/>
-    <col min="21" max="21" width="26.7109375" customWidth="1"/>
-    <col min="22" max="22" width="26.7109375" customWidth="1"/>
+    <col min="21" max="22" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1359,13 +1302,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="F2" s="3">
         <v>21</v>
@@ -1373,41 +1316,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1415,13 +1358,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F6" s="3">
         <v>18</v>
@@ -1529,7 +1472,7 @@
       <c r="K9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="M9" s="7" t="s">
@@ -1564,70 +1507,70 @@
       </c>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="S10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="T10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="U10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="V10" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1636,22 +1579,22 @@
         <v>50</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>29</v>
@@ -1666,7 +1609,7 @@
         <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>33</v>
@@ -1675,10 +1618,10 @@
         <v>46</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>49</v>
@@ -1693,104 +1636,104 @@
         <v>40</v>
       </c>
       <c r="U11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="V11" s="7" t="s">
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="D12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="I12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="P12" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" s="11" t="s">
+      <c r="Q12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="R12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="V12" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="V12" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>43</v>
@@ -1802,22 +1745,22 @@
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>38</v>
@@ -1836,97 +1779,97 @@
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="F14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="I14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="M14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="P14" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="Q14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U14" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="11" t="s">
+      <c r="V14" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="M14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O14" s="11" t="s">
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="B15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="Q14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="S14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="U14" s="11" t="s">
+      <c r="D15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="V14" s="11" t="s">
+      <c r="E15" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="45" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="G15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>22</v>
@@ -1938,7 +1881,7 @@
         <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>33</v>
@@ -1947,122 +1890,122 @@
         <v>46</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="T15" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="V15" s="7" t="s">
+      <c r="G16" s="10" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" ht="30" customHeight="1">
-      <c r="A16" s="9" t="s">
+      <c r="H16" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="P16" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="Q16" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="R16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U16" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="V16" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="11" t="s">
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O16" s="11" t="s">
+      <c r="B17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="D17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="R16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="U16" s="11" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="V16" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="30" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="H17" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>22</v>
@@ -2073,7 +2016,7 @@
       <c r="K17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="6" t="s">
         <v>32</v>
       </c>
       <c r="M17" s="7" t="s">
@@ -2083,10 +2026,10 @@
         <v>46</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>37</v>
@@ -2095,110 +2038,110 @@
         <v>38</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="T17" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V17" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="8" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="9" t="s">
+      <c r="O18" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="P18" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="P18" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="R18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="S18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="T18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="U18" s="11" t="s">
+      <c r="U18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="V18" s="11" t="s">
+      <c r="V18" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>22</v>
@@ -2209,7 +2152,7 @@
       <c r="K19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="6" t="s">
         <v>32</v>
       </c>
       <c r="M19" s="7" t="s">
@@ -2219,13 +2162,13 @@
         <v>46</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R19" s="7" t="s">
         <v>38</v>
@@ -2244,71 +2187,71 @@
       </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="P20" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="Q20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U20" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="P20" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q20" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="S20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="T20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="U20" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="V20" s="11" t="s">
-        <v>154</v>
+      <c r="V20" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2333,9 +2276,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="44.7109375" customWidth="1"/>
@@ -2346,19 +2289,16 @@
     <col min="12" max="12" width="60.7109375" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" customWidth="1"/>
+    <col min="15" max="16" width="21.7109375" customWidth="1"/>
     <col min="17" max="17" width="23.7109375" customWidth="1"/>
-    <col min="18" max="18" width="24.7109375" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" customWidth="1"/>
+    <col min="18" max="19" width="24.7109375" customWidth="1"/>
     <col min="20" max="20" width="28.7109375" customWidth="1"/>
-    <col min="21" max="21" width="26.7109375" customWidth="1"/>
-    <col min="22" max="22" width="26.7109375" customWidth="1"/>
+    <col min="21" max="22" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2382,13 +2322,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="F2" s="3">
         <v>21</v>
@@ -2396,41 +2336,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2438,13 +2378,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F6" s="3">
         <v>18</v>
@@ -2532,10 +2472,10 @@
         <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>28</v>
@@ -2547,25 +2487,25 @@
         <v>43</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="L9" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>49</v>
@@ -2577,7 +2517,7 @@
         <v>39</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>41</v>
@@ -2587,71 +2527,71 @@
       </c>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="B10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" s="9" t="s">
+      <c r="E10" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="M10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="L10" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q10" s="11" t="s">
+      <c r="P10" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="S10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="T10" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>188</v>
+      <c r="T10" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="30" customHeight="1">
@@ -2659,37 +2599,37 @@
         <v>50</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>33</v>
@@ -2698,13 +2638,13 @@
         <v>46</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>38</v>
@@ -2713,7 +2653,7 @@
         <v>39</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="U11" s="7" t="s">
         <v>41</v>
@@ -2722,110 +2662,110 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="45" customHeight="1">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:22">
+      <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="B12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L12" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="M12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="U12" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="V12" s="11" t="s">
-        <v>106</v>
+      <c r="V12" s="10" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="45" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>33</v>
@@ -2834,10 +2774,10 @@
         <v>46</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>37</v>
@@ -2846,121 +2786,121 @@
         <v>38</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="A14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="9" t="s">
+      <c r="E14" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="L14" s="12" t="s">
+      <c r="J14" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q14" s="11" t="s">
+      <c r="N14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="R14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="S14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="T14" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="U14" s="11" t="s">
+      <c r="T14" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="U14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="V14" s="11" t="s">
+      <c r="V14" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="L15" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>32</v>
       </c>
       <c r="M15" s="7" t="s">
@@ -2970,13 +2910,13 @@
         <v>46</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>38</v>
@@ -2985,7 +2925,7 @@
         <v>39</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="U15" s="7" t="s">
         <v>41</v>
@@ -2995,109 +2935,109 @@
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="A16" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="9" t="s">
+      <c r="E16" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="M16" s="11" t="s">
+      <c r="J16" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="M16" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N16" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q16" s="11" t="s">
+      <c r="N16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q16" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="R16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="S16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="T16" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="U16" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="V16" s="11" t="s">
-        <v>229</v>
+      <c r="T16" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="U16" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="V16" s="10" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>33</v>
@@ -3106,13 +3046,13 @@
         <v>46</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>38</v>
@@ -3121,13 +3061,13 @@
         <v>39</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3153,22 +3093,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
-        <v>242</v>
+      <c r="A3" s="11" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="8" t="s">
-        <v>243</v>
+      <c r="A4" s="6" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/t1-bom.xlsx
+++ b/BoM/Positional/t1-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="246">
   <si>
     <t>Row</t>
   </si>
@@ -743,6 +743,9 @@
   </si>
   <si>
     <t>2.4000</t>
+  </si>
+  <si>
+    <t>Columns colors</t>
   </si>
   <si>
     <t>KiCad Fields (default)</t>
@@ -3206,33 +3209,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="8" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/t1-bom.xlsx
+++ b/BoM/Positional/t1-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="269">
   <si>
     <t>Row</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Footprint Type</t>
   </si>
   <si>
+    <t>Footprint Type NV</t>
+  </si>
+  <si>
     <t>Footprint Populate</t>
   </si>
   <si>
@@ -88,6 +91,12 @@
     <t>Footprint Y-Size</t>
   </si>
   <si>
+    <t>Net Name</t>
+  </si>
+  <si>
+    <t>Net Class</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -151,6 +160,12 @@
     <t>1.4000</t>
   </si>
   <si>
+    <t>+5V,GND</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -172,6 +187,9 @@
     <t>270.0000</t>
   </si>
   <si>
+    <t>Net-(U1-UCAP),Earth</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -235,6 +253,9 @@
     <t>1.7500</t>
   </si>
   <si>
+    <t>+5V,/RESET2</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -262,6 +283,9 @@
     <t>-74.9500</t>
   </si>
   <si>
+    <t>/RXLED,Net-(D2-A)</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -295,6 +319,9 @@
     <t>14.0000</t>
   </si>
   <si>
+    <t>,+5V,GND</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -334,6 +361,9 @@
     <t>6.7800</t>
   </si>
   <si>
+    <t>/MISO2,GND,+5V,/MOSI2,/SCK2,/RESET2</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
@@ -367,6 +397,9 @@
     <t>11.8600</t>
   </si>
   <si>
+    <t>Net-(J3-Pin_4),Net-(J3-Pin_5),Net-(J3-Pin_3),Net-(J3-Pin_2),Net-(J3-Pin_1)</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
@@ -394,6 +427,9 @@
     <t>14.4000</t>
   </si>
   <si>
+    <t>Net-(J6-Pin_5),Net-(J6-Pin_6),Net-(J6-Pin_1),Net-(J6-Pin_3),Net-(J6-Pin_4),Net-(J6-Pin_2)</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -424,6 +460,9 @@
     <t>bottom</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
@@ -454,6 +493,9 @@
     <t>-82.8040</t>
   </si>
   <si>
+    <t>/DTR,GND</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
@@ -505,6 +547,9 @@
     <t>10.1000</t>
   </si>
   <si>
+    <t>Net-(U1-PC0{slash}XTAL2),/TXLED,/DTR,Net-(J6-Pin_6),Earth,Net-(J3-Pin_3),+5V,Net-(J4-Pin_4),Net-(U1-D-),unconnected-(U1-PB0-Pad14),Net-(J6-Pin_5),Net-(J3-Pin_5),/SCK2,Net-(J3-Pin_1),Net-(J6-Pin_4),Net-(J6-Pin_2),/RXLED,Net-(J4-Pin_2),Net-(J3-Pin_4),GND,VBUS,Net-(J6-Pin_3),Net-(J4-Pin_3),Net-(J3-Pin_2),Net-(U1-XTAL1),Net-(U1-D+),Net-(J4-Pin_1),Net-(U1-UCAP),/MISO2,/RESET2,/MOSI2</t>
+  </si>
+  <si>
     <t>KiBot Bill of Materials</t>
   </si>
   <si>
@@ -535,7 +580,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>8.0.1+dfsg-1</t>
+    <t>8.0.4+1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -580,6 +625,9 @@
     <t>no</t>
   </si>
   <si>
+    <t>Net-(U1-XTAL1),GND</t>
+  </si>
+  <si>
     <t>Resettable fuse, polymeric positive temperature coefficient</t>
   </si>
   <si>
@@ -604,6 +652,9 @@
     <t>3.4000</t>
   </si>
   <si>
+    <t>Net-(J2-VBUS),VBUS</t>
+  </si>
+  <si>
     <t>Ferrite bead</t>
   </si>
   <si>
@@ -619,6 +670,9 @@
     <t>-90.6780</t>
   </si>
   <si>
+    <t>Net-(J2-Shield),Earth</t>
+  </si>
+  <si>
     <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -640,6 +694,9 @@
     <t>-95.2500</t>
   </si>
   <si>
+    <t>Net-(J4-Pin_1),Net-(J4-Pin_3),Net-(J4-Pin_4),Net-(J4-Pin_2)</t>
+  </si>
+  <si>
     <t>USB Type B connector</t>
   </si>
   <si>
@@ -667,6 +724,9 @@
     <t>16.0000</t>
   </si>
   <si>
+    <t>Earth,Net-(J2-D+),Net-(J2-VBUS),Net-(J2-D-),Net-(J2-Shield)</t>
+  </si>
+  <si>
     <t>R1 R2</t>
   </si>
   <si>
@@ -679,6 +739,9 @@
     <t>-86.1060</t>
   </si>
   <si>
+    <t>Net-(J2-D+),Net-(U1-D+)</t>
+  </si>
+  <si>
     <t>R3</t>
   </si>
   <si>
@@ -691,6 +754,9 @@
     <t>-75.8780</t>
   </si>
   <si>
+    <t>Net-(U1-XTAL1),Net-(U1-PC0{slash}XTAL2)</t>
+  </si>
+  <si>
     <t>Voltage dependent resistor</t>
   </si>
   <si>
@@ -716,6 +782,9 @@
   </si>
   <si>
     <t>0.9500</t>
+  </si>
+  <si>
+    <t>Net-(J2-D+),Net-(J2-Shield)</t>
   </si>
   <si>
     <t>Two pin crystal</t>
@@ -1306,7 +1375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1329,16 +1398,22 @@
     <col min="12" max="12" width="60.7109375" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="16" width="21.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" customWidth="1"/>
     <col min="17" max="17" width="23.7109375" customWidth="1"/>
-    <col min="18" max="19" width="24.7109375" customWidth="1"/>
-    <col min="20" max="20" width="28.7109375" customWidth="1"/>
-    <col min="21" max="22" width="26.7109375" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" customWidth="1"/>
+    <col min="20" max="20" width="27.7109375" customWidth="1"/>
+    <col min="21" max="21" width="28.7109375" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" customWidth="1"/>
+    <col min="24" max="24" width="60.7109375" customWidth="1"/>
+    <col min="25" max="25" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="32" customHeight="1">
+    <row r="1" spans="1:25" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1359,78 +1434,81 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25">
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="F2" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:25">
       <c r="C3" s="2" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="C4" s="2" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="C5" s="2" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:25">
       <c r="C6" s="2" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="F6" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:25">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1497,894 +1575,1020 @@
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="J10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="X10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y10" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="8" t="s">
+      <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="I11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="B12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="L12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="M12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T9" s="7" t="s">
+      <c r="N12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y12" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="U9" s="7" t="s">
+      <c r="R14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="V9" s="7" t="s">
+      <c r="S14" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="9" t="s">
+      <c r="T14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="U14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="V14" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="W14" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="X14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y14" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="45" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="11" t="s">
+      <c r="J15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="P10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="T10" s="11" t="s">
+    </row>
+    <row r="16" spans="1:25" ht="30" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="V16" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="W16" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="X16" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y16" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="R17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="V10" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="V12" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="5" t="s">
+      <c r="S17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="U17" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="S14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="U14" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="V14" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="45" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="V15" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q16" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="U16" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="V16" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="9" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="T18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="V18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="U18" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="V18" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="X18" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y18" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="5" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="X19" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y19" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="R19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U19" s="7" t="s">
+      <c r="J20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="V19" s="7" t="s">
+      <c r="S20" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="T20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="U20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="V20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="X20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y20" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="105" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="P20" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q20" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="S20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="T20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="U20" s="11" t="s">
+      <c r="J21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="R21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="V20" s="11" t="s">
+      <c r="S21" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="R21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T21" s="7" t="s">
-        <v>40</v>
+      <c r="T21" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>160</v>
+        <v>174</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="X21" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y21" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="C1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -2394,7 +2598,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -2414,18 +2618,25 @@
     <col min="9" max="9" width="26.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="13" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="16" width="21.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" customWidth="1"/>
     <col min="17" max="17" width="23.7109375" customWidth="1"/>
-    <col min="18" max="19" width="24.7109375" customWidth="1"/>
-    <col min="20" max="20" width="28.7109375" customWidth="1"/>
-    <col min="21" max="22" width="26.7109375" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" customWidth="1"/>
+    <col min="20" max="20" width="27.7109375" customWidth="1"/>
+    <col min="21" max="21" width="28.7109375" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" customWidth="1"/>
+    <col min="24" max="24" width="60.7109375" customWidth="1"/>
+    <col min="25" max="25" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="32" customHeight="1">
+    <row r="1" spans="1:25" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2446,78 +2657,81 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25">
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="F2" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:25">
       <c r="C3" s="2" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="C4" s="2" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="C5" s="2" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:25">
       <c r="C6" s="2" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="F6" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:25">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -2584,622 +2798,712 @@
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="J10" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="X10" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y10" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="7" t="s">
+      <c r="E11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="45" customHeight="1">
+      <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="U9" s="7" t="s">
+      <c r="B12" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="V9" s="7" t="s">
+      <c r="S12" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="W12" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="X12" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y12" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S14" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="T14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="V14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="X14" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y14" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="P10" s="11" t="s">
+      <c r="J15" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="Q10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="R15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y15" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="V16" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="W16" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="X16" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y16" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J17" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K17" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="U11" s="7" t="s">
+      <c r="L17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="V11" s="7" t="s">
+      <c r="S17" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" ht="45" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="T17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U17" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="V12" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="S14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="U14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="V14" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="U15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="V15" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="U16" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="V16" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="U17" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="V17" s="7" t="s">
-        <v>240</v>
+        <v>262</v>
+      </c>
+      <c r="W17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="C1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -3220,27 +3524,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/t1-bom.xlsx
+++ b/BoM/Positional/t1-bom.xlsx
@@ -361,7 +361,7 @@
     <t>6.7800</t>
   </si>
   <si>
-    <t>/MISO2,GND,+5V,/MOSI2,/SCK2,/RESET2</t>
+    <t>/RESET2,/MISO2,+5V,/MOSI2,GND,/SCK2</t>
   </si>
   <si>
     <t>8</t>
@@ -397,7 +397,7 @@
     <t>11.8600</t>
   </si>
   <si>
-    <t>Net-(J3-Pin_4),Net-(J3-Pin_5),Net-(J3-Pin_3),Net-(J3-Pin_2),Net-(J3-Pin_1)</t>
+    <t>Net-(J3-Pin_5),Net-(J3-Pin_1),Net-(J3-Pin_3),Net-(J3-Pin_2),Net-(J3-Pin_4)</t>
   </si>
   <si>
     <t>9</t>
@@ -427,7 +427,7 @@
     <t>14.4000</t>
   </si>
   <si>
-    <t>Net-(J6-Pin_5),Net-(J6-Pin_6),Net-(J6-Pin_1),Net-(J6-Pin_3),Net-(J6-Pin_4),Net-(J6-Pin_2)</t>
+    <t>Net-(J6-Pin_3),Net-(J6-Pin_2),Net-(J6-Pin_4),Net-(J6-Pin_6),Net-(J6-Pin_1),Net-(J6-Pin_5)</t>
   </si>
   <si>
     <t>10</t>
@@ -547,7 +547,7 @@
     <t>10.1000</t>
   </si>
   <si>
-    <t>Net-(U1-PC0{slash}XTAL2),/TXLED,/DTR,Net-(J6-Pin_6),Earth,Net-(J3-Pin_3),+5V,Net-(J4-Pin_4),Net-(U1-D-),unconnected-(U1-PB0-Pad14),Net-(J6-Pin_5),Net-(J3-Pin_5),/SCK2,Net-(J3-Pin_1),Net-(J6-Pin_4),Net-(J6-Pin_2),/RXLED,Net-(J4-Pin_2),Net-(J3-Pin_4),GND,VBUS,Net-(J6-Pin_3),Net-(J4-Pin_3),Net-(J3-Pin_2),Net-(U1-XTAL1),Net-(U1-D+),Net-(J4-Pin_1),Net-(U1-UCAP),/MISO2,/RESET2,/MOSI2</t>
+    <t>Net-(U1-UCAP),Net-(J3-Pin_5),/RESET2,VBUS,Net-(J3-Pin_2),Net-(J4-Pin_1),Net-(J3-Pin_4),Net-(J4-Pin_2),Net-(U1-D+),/SCK2,/MISO2,/MOSI2,/RXLED,/TXLED,Net-(J6-Pin_3),unconnected-(U1-PB0-Pad14),Net-(U1-XTAL1),Net-(J3-Pin_3),Net-(J6-Pin_2),Net-(J4-Pin_3),Net-(J6-Pin_4),Net-(U1-D-),Net-(J6-Pin_6),GND,Net-(J6-Pin_5),Earth,/DTR,Net-(J3-Pin_1),+5V,Net-(J4-Pin_4),Net-(U1-PC0{slash}XTAL2)</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -652,7 +652,7 @@
     <t>3.4000</t>
   </si>
   <si>
-    <t>Net-(J2-VBUS),VBUS</t>
+    <t>VBUS,Net-(J2-VBUS)</t>
   </si>
   <si>
     <t>Ferrite bead</t>
@@ -694,7 +694,7 @@
     <t>-95.2500</t>
   </si>
   <si>
-    <t>Net-(J4-Pin_1),Net-(J4-Pin_3),Net-(J4-Pin_4),Net-(J4-Pin_2)</t>
+    <t>Net-(J4-Pin_2),Net-(J4-Pin_1),Net-(J4-Pin_3),Net-(J4-Pin_4)</t>
   </si>
   <si>
     <t>USB Type B connector</t>
@@ -724,7 +724,7 @@
     <t>16.0000</t>
   </si>
   <si>
-    <t>Earth,Net-(J2-D+),Net-(J2-VBUS),Net-(J2-D-),Net-(J2-Shield)</t>
+    <t>Net-(J2-D-),Net-(J2-Shield),Net-(J2-D+),Net-(J2-VBUS),Earth</t>
   </si>
   <si>
     <t>R1 R2</t>
@@ -739,7 +739,7 @@
     <t>-86.1060</t>
   </si>
   <si>
-    <t>Net-(J2-D+),Net-(U1-D+)</t>
+    <t>Net-(U1-D+),Net-(J2-D+)</t>
   </si>
   <si>
     <t>R3</t>
@@ -754,7 +754,7 @@
     <t>-75.8780</t>
   </si>
   <si>
-    <t>Net-(U1-XTAL1),Net-(U1-PC0{slash}XTAL2)</t>
+    <t>Net-(U1-PC0{slash}XTAL2),Net-(U1-XTAL1)</t>
   </si>
   <si>
     <t>Voltage dependent resistor</t>
@@ -784,7 +784,7 @@
     <t>0.9500</t>
   </si>
   <si>
-    <t>Net-(J2-D+),Net-(J2-Shield)</t>
+    <t>Net-(J2-Shield),Net-(J2-D+)</t>
   </si>
   <si>
     <t>Two pin crystal</t>

--- a/BoM/Positional/t1-bom.xlsx
+++ b/BoM/Positional/t1-bom.xlsx
@@ -160,7 +160,7 @@
     <t>1.4000</t>
   </si>
   <si>
-    <t>+5V,GND</t>
+    <t>GND,+5V</t>
   </si>
   <si>
     <t>Default</t>
@@ -283,7 +283,7 @@
     <t>-74.9500</t>
   </si>
   <si>
-    <t>/RXLED,Net-(D2-A)</t>
+    <t>Net-(D2-A),/RXLED</t>
   </si>
   <si>
     <t>6</t>
@@ -319,7 +319,7 @@
     <t>14.0000</t>
   </si>
   <si>
-    <t>,+5V,GND</t>
+    <t>,GND,+5V</t>
   </si>
   <si>
     <t>7</t>
@@ -361,7 +361,7 @@
     <t>6.7800</t>
   </si>
   <si>
-    <t>/RESET2,/MISO2,+5V,/MOSI2,GND,/SCK2</t>
+    <t>+5V,/MISO2,/SCK2,/RESET2,GND,/MOSI2</t>
   </si>
   <si>
     <t>8</t>
@@ -397,7 +397,7 @@
     <t>11.8600</t>
   </si>
   <si>
-    <t>Net-(J3-Pin_5),Net-(J3-Pin_1),Net-(J3-Pin_3),Net-(J3-Pin_2),Net-(J3-Pin_4)</t>
+    <t>Net-(J3-Pin_5),Net-(J3-Pin_3),Net-(J3-Pin_4),Net-(J3-Pin_1),Net-(J3-Pin_2)</t>
   </si>
   <si>
     <t>9</t>
@@ -427,7 +427,7 @@
     <t>14.4000</t>
   </si>
   <si>
-    <t>Net-(J6-Pin_3),Net-(J6-Pin_2),Net-(J6-Pin_4),Net-(J6-Pin_6),Net-(J6-Pin_1),Net-(J6-Pin_5)</t>
+    <t>Net-(J6-Pin_4),Net-(J6-Pin_2),Net-(J6-Pin_3),Net-(J6-Pin_5),Net-(J6-Pin_1),Net-(J6-Pin_6)</t>
   </si>
   <si>
     <t>10</t>
@@ -493,7 +493,7 @@
     <t>-82.8040</t>
   </si>
   <si>
-    <t>/DTR,GND</t>
+    <t>GND,/DTR</t>
   </si>
   <si>
     <t>12</t>
@@ -547,7 +547,7 @@
     <t>10.1000</t>
   </si>
   <si>
-    <t>Net-(U1-UCAP),Net-(J3-Pin_5),/RESET2,VBUS,Net-(J3-Pin_2),Net-(J4-Pin_1),Net-(J3-Pin_4),Net-(J4-Pin_2),Net-(U1-D+),/SCK2,/MISO2,/MOSI2,/RXLED,/TXLED,Net-(J6-Pin_3),unconnected-(U1-PB0-Pad14),Net-(U1-XTAL1),Net-(J3-Pin_3),Net-(J6-Pin_2),Net-(J4-Pin_3),Net-(J6-Pin_4),Net-(U1-D-),Net-(J6-Pin_6),GND,Net-(J6-Pin_5),Earth,/DTR,Net-(J3-Pin_1),+5V,Net-(J4-Pin_4),Net-(U1-PC0{slash}XTAL2)</t>
+    <t>Net-(J6-Pin_4),Net-(J3-Pin_5),unconnected-(U1-PB0-Pad14),/MISO2,/RESET2,Net-(U1-D+),Net-(J4-Pin_3),+5V,Net-(U1-PC0{slash}XTAL2),Net-(J4-Pin_4),/RXLED,Earth,/MOSI2,Net-(U1-UCAP),/SCK2,/DTR,Net-(J4-Pin_2),GND,VBUS,Net-(J6-Pin_5),/TXLED,Net-(J6-Pin_6),Net-(U1-D-),Net-(J3-Pin_3),Net-(J3-Pin_4),Net-(J6-Pin_2),Net-(J6-Pin_3),Net-(J3-Pin_1),Net-(U1-XTAL1),Net-(J3-Pin_2),Net-(J4-Pin_1)</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -580,7 +580,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>8.0.4+1</t>
+    <t>8.0.5+1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -670,7 +670,7 @@
     <t>-90.6780</t>
   </si>
   <si>
-    <t>Net-(J2-Shield),Earth</t>
+    <t>Earth,Net-(J2-Shield)</t>
   </si>
   <si>
     <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -694,7 +694,7 @@
     <t>-95.2500</t>
   </si>
   <si>
-    <t>Net-(J4-Pin_2),Net-(J4-Pin_1),Net-(J4-Pin_3),Net-(J4-Pin_4)</t>
+    <t>Net-(J4-Pin_3),Net-(J4-Pin_4),Net-(J4-Pin_1),Net-(J4-Pin_2)</t>
   </si>
   <si>
     <t>USB Type B connector</t>
@@ -724,7 +724,7 @@
     <t>16.0000</t>
   </si>
   <si>
-    <t>Net-(J2-D-),Net-(J2-Shield),Net-(J2-D+),Net-(J2-VBUS),Earth</t>
+    <t>Net-(J2-D+),Net-(J2-Shield),Net-(J2-D-),Net-(J2-VBUS),Earth</t>
   </si>
   <si>
     <t>R1 R2</t>
@@ -739,7 +739,7 @@
     <t>-86.1060</t>
   </si>
   <si>
-    <t>Net-(U1-D+),Net-(J2-D+)</t>
+    <t>Net-(J2-D+),Net-(U1-D+)</t>
   </si>
   <si>
     <t>R3</t>
@@ -754,7 +754,7 @@
     <t>-75.8780</t>
   </si>
   <si>
-    <t>Net-(U1-PC0{slash}XTAL2),Net-(U1-XTAL1)</t>
+    <t>Net-(U1-XTAL1),Net-(U1-PC0{slash}XTAL2)</t>
   </si>
   <si>
     <t>Voltage dependent resistor</t>
@@ -784,7 +784,7 @@
     <t>0.9500</t>
   </si>
   <si>
-    <t>Net-(J2-Shield),Net-(J2-D+)</t>
+    <t>Net-(J2-D+),Net-(J2-Shield)</t>
   </si>
   <si>
     <t>Two pin crystal</t>
@@ -996,10 +996,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1464384</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123779</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>738600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>297815</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1026,7 +1026,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2378784" cy="1285829"/>
+          <a:ext cx="9396825" cy="5079365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1048,10 +1048,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1464384</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123779</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1272000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>107315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1078,7 +1078,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2378784" cy="1285829"/>
+          <a:ext cx="9396825" cy="5079365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/BoM/Positional/t1-bom.xlsx
+++ b/BoM/Positional/t1-bom.xlsx
@@ -160,7 +160,7 @@
     <t>1.4000</t>
   </si>
   <si>
-    <t>GND,+5V</t>
+    <t>+5V,GND</t>
   </si>
   <si>
     <t>Default</t>
@@ -283,7 +283,7 @@
     <t>-74.9500</t>
   </si>
   <si>
-    <t>Net-(D2-A),/RXLED</t>
+    <t>/RXLED,Net-(D2-A)</t>
   </si>
   <si>
     <t>6</t>
@@ -319,7 +319,7 @@
     <t>14.0000</t>
   </si>
   <si>
-    <t>,GND,+5V</t>
+    <t>,+5V,GND</t>
   </si>
   <si>
     <t>7</t>
@@ -361,7 +361,7 @@
     <t>6.7800</t>
   </si>
   <si>
-    <t>+5V,/MISO2,/SCK2,/RESET2,GND,/MOSI2</t>
+    <t>+5V,GND,/SCK2,/MOSI2,/MISO2,/RESET2</t>
   </si>
   <si>
     <t>8</t>
@@ -397,7 +397,7 @@
     <t>11.8600</t>
   </si>
   <si>
-    <t>Net-(J3-Pin_5),Net-(J3-Pin_3),Net-(J3-Pin_4),Net-(J3-Pin_1),Net-(J3-Pin_2)</t>
+    <t>Net-(J3-Pin_1),Net-(J3-Pin_5),Net-(J3-Pin_2),Net-(J3-Pin_3),Net-(J3-Pin_4)</t>
   </si>
   <si>
     <t>9</t>
@@ -427,7 +427,7 @@
     <t>14.4000</t>
   </si>
   <si>
-    <t>Net-(J6-Pin_4),Net-(J6-Pin_2),Net-(J6-Pin_3),Net-(J6-Pin_5),Net-(J6-Pin_1),Net-(J6-Pin_6)</t>
+    <t>Net-(J6-Pin_5),Net-(J6-Pin_2),Net-(J6-Pin_6),Net-(J6-Pin_3),Net-(J6-Pin_4),Net-(J6-Pin_1)</t>
   </si>
   <si>
     <t>10</t>
@@ -547,7 +547,7 @@
     <t>10.1000</t>
   </si>
   <si>
-    <t>Net-(J6-Pin_4),Net-(J3-Pin_5),unconnected-(U1-PB0-Pad14),/MISO2,/RESET2,Net-(U1-D+),Net-(J4-Pin_3),+5V,Net-(U1-PC0{slash}XTAL2),Net-(J4-Pin_4),/RXLED,Earth,/MOSI2,Net-(U1-UCAP),/SCK2,/DTR,Net-(J4-Pin_2),GND,VBUS,Net-(J6-Pin_5),/TXLED,Net-(J6-Pin_6),Net-(U1-D-),Net-(J3-Pin_3),Net-(J3-Pin_4),Net-(J6-Pin_2),Net-(J6-Pin_3),Net-(J3-Pin_1),Net-(U1-XTAL1),Net-(J3-Pin_2),Net-(J4-Pin_1)</t>
+    <t>Net-(J4-Pin_2),Net-(U1-D+),GND,/DTR,unconnected-(U1-PB0-Pad14),Net-(J6-Pin_3),Net-(J3-Pin_3),Net-(U1-PC0{slash}XTAL2),Net-(J6-Pin_5),Net-(J6-Pin_2),Net-(J6-Pin_6),Net-(U1-UCAP),/SCK2,/MOSI2,Net-(J3-Pin_2),/RESET2,Earth,Net-(J4-Pin_1),/MISO2,Net-(J4-Pin_3),Net-(J3-Pin_4),+5V,Net-(J3-Pin_1),Net-(J3-Pin_5),VBUS,/RXLED,Net-(J4-Pin_4),Net-(J6-Pin_4),/TXLED,Net-(U1-D-),Net-(U1-XTAL1)</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -625,7 +625,7 @@
     <t>no</t>
   </si>
   <si>
-    <t>Net-(U1-XTAL1),GND</t>
+    <t>GND,Net-(U1-XTAL1)</t>
   </si>
   <si>
     <t>Resettable fuse, polymeric positive temperature coefficient</t>
@@ -694,7 +694,7 @@
     <t>-95.2500</t>
   </si>
   <si>
-    <t>Net-(J4-Pin_3),Net-(J4-Pin_4),Net-(J4-Pin_1),Net-(J4-Pin_2)</t>
+    <t>Net-(J4-Pin_2),Net-(J4-Pin_4),Net-(J4-Pin_3),Net-(J4-Pin_1)</t>
   </si>
   <si>
     <t>USB Type B connector</t>
@@ -724,7 +724,7 @@
     <t>16.0000</t>
   </si>
   <si>
-    <t>Net-(J2-D+),Net-(J2-Shield),Net-(J2-D-),Net-(J2-VBUS),Earth</t>
+    <t>Net-(J2-VBUS),Net-(J2-D+),Earth,Net-(J2-D-),Net-(J2-Shield)</t>
   </si>
   <si>
     <t>R1 R2</t>
@@ -739,7 +739,7 @@
     <t>-86.1060</t>
   </si>
   <si>
-    <t>Net-(J2-D+),Net-(U1-D+)</t>
+    <t>Net-(U1-D+),Net-(J2-D+)</t>
   </si>
   <si>
     <t>R3</t>
@@ -754,7 +754,7 @@
     <t>-75.8780</t>
   </si>
   <si>
-    <t>Net-(U1-XTAL1),Net-(U1-PC0{slash}XTAL2)</t>
+    <t>Net-(U1-PC0{slash}XTAL2),Net-(U1-XTAL1)</t>
   </si>
   <si>
     <t>Voltage dependent resistor</t>
@@ -784,7 +784,7 @@
     <t>0.9500</t>
   </si>
   <si>
-    <t>Net-(J2-D+),Net-(J2-Shield)</t>
+    <t>Net-(J2-Shield),Net-(J2-D+)</t>
   </si>
   <si>
     <t>Two pin crystal</t>
@@ -2509,7 +2509,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="105" customHeight="1">
+    <row r="21" spans="1:25" ht="120" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>163</v>
       </c>

--- a/BoM/Positional/t1-bom.xlsx
+++ b/BoM/Positional/t1-bom.xlsx
@@ -211,7 +211,7 @@
     <t>270.0000</t>
   </si>
   <si>
-    <t>Earth,Net-(U1-UCAP)</t>
+    <t>Net-(U1-UCAP),Earth</t>
   </si>
   <si>
     <t>3</t>
@@ -391,10 +391,10 @@
     <t>6.7800</t>
   </si>
   <si>
-    <t>+5V,GND,/MOSI2,/SCK2,/RESET2,/MISO2</t>
-  </si>
-  <si>
-    <t>MISO2</t>
+    <t>/RESET2,/SCK2,+5V,/MISO2,/MOSI2,GND</t>
+  </si>
+  <si>
+    <t>MOSI2,GND</t>
   </si>
   <si>
     <t>8</t>
@@ -430,7 +430,7 @@
     <t>11.8600</t>
   </si>
   <si>
-    <t>Net-(J3-Pin_4),Net-(J3-Pin_2),Net-(J3-Pin_1),Net-(J3-Pin_5),Net-(J3-Pin_3)</t>
+    <t>Net-(J3-Pin_2),Net-(J3-Pin_5),Net-(J3-Pin_1),Net-(J3-Pin_4),Net-(J3-Pin_3)</t>
   </si>
   <si>
     <t>9</t>
@@ -460,7 +460,7 @@
     <t>14.4000</t>
   </si>
   <si>
-    <t>Net-(J6-Pin_4),Net-(J6-Pin_6),Net-(J6-Pin_5),Net-(J6-Pin_3),Net-(J6-Pin_1),Net-(J6-Pin_2)</t>
+    <t>Net-(J6-Pin_1),Net-(J6-Pin_6),Net-(J6-Pin_2),Net-(J6-Pin_5),Net-(J6-Pin_3),Net-(J6-Pin_4)</t>
   </si>
   <si>
     <t>10</t>
@@ -580,10 +580,10 @@
     <t>10.1000</t>
   </si>
   <si>
-    <t>Net-(J4-Pin_1),GND,+5V,Net-(J3-Pin_2),Net-(U1-D-),Net-(U1-PC0{slash}XTAL2),Net-(J3-Pin_5),/RXLED,Net-(J3-Pin_3),Net-(J6-Pin_5),Net-(J6-Pin_3),Earth,Net-(J6-Pin_2),/MOSI2,/SCK2,Net-(J6-Pin_4),/TXLED,Net-(J3-Pin_4),Net-(J4-Pin_4),Net-(J4-Pin_2),/RESET2,VBUS,Net-(J4-Pin_3),Net-(J6-Pin_6),Net-(U1-UCAP),/DTR,unconnected-(U1-PB0-Pad14),Net-(J3-Pin_1),Net-(U1-XTAL1),/MISO2,Net-(U1-D+)</t>
-  </si>
-  <si>
-    <t>MISO2,Net-(U1-D+)</t>
+    <t>+5V,Net-(J3-Pin_4),Net-(J6-Pin_6),Net-(J4-Pin_1),unconnected-(U1-PB0-Pad14),Net-(J4-Pin_2),Net-(U1-PC0{slash}XTAL2),/TXLED,Earth,Net-(J6-Pin_4),Net-(U1-D+),Net-(J4-Pin_3),/MOSI2,Net-(U1-XTAL1),Net-(U1-UCAP),/RXLED,Net-(U1-D-),VBUS,Net-(J3-Pin_5),/MISO2,Net-(J3-Pin_1),Net-(J6-Pin_5),Net-(J4-Pin_4),Net-(J6-Pin_3),/DTR,Net-(J3-Pin_2),/RESET2,/SCK2,Net-(J6-Pin_2),Net-(J3-Pin_3),GND</t>
+  </si>
+  <si>
+    <t>SCK2,Net-(J6-Pin_2),Net-(J3-Pin_3),GND</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -661,7 +661,7 @@
     <t>no</t>
   </si>
   <si>
-    <t>GND,Net-(U1-XTAL1)</t>
+    <t>Net-(U1-XTAL1),GND</t>
   </si>
   <si>
     <t>Resettable fuse, polymeric positive temperature coefficient</t>
@@ -706,7 +706,7 @@
     <t>-90.6780</t>
   </si>
   <si>
-    <t>Earth,Net-(J2-Shield)</t>
+    <t>Net-(J2-Shield),Earth</t>
   </si>
   <si>
     <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -730,7 +730,7 @@
     <t>-95.2500</t>
   </si>
   <si>
-    <t>Net-(J4-Pin_3),Net-(J4-Pin_1),Net-(J4-Pin_2),Net-(J4-Pin_4)</t>
+    <t>Net-(J4-Pin_1),Net-(J4-Pin_2),Net-(J4-Pin_3),Net-(J4-Pin_4)</t>
   </si>
   <si>
     <t>USB Type B connector</t>
@@ -760,7 +760,7 @@
     <t>16.0000</t>
   </si>
   <si>
-    <t>Net-(J2-D-),Earth,Net-(J2-Shield),Net-(J2-VBUS),Net-(J2-D+)</t>
+    <t>Net-(J2-D-),Net-(J2-Shield),Earth,Net-(J2-D+),Net-(J2-VBUS)</t>
   </si>
   <si>
     <t>R1 R2</t>
@@ -790,7 +790,7 @@
     <t>-75.8780</t>
   </si>
   <si>
-    <t>Net-(U1-PC0{slash}XTAL2),Net-(U1-XTAL1)</t>
+    <t>Net-(U1-XTAL1),Net-(U1-PC0{slash}XTAL2)</t>
   </si>
   <si>
     <t>Voltage dependent resistor</t>
@@ -820,7 +820,7 @@
     <t>0.9500</t>
   </si>
   <si>
-    <t>Net-(J2-D+),Net-(J2-Shield)</t>
+    <t>Net-(J2-Shield),Net-(J2-D+)</t>
   </si>
   <si>
     <t>Two pin crystal</t>
@@ -2791,7 +2791,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="105" customHeight="1">
+    <row r="21" spans="1:31" ht="120" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>174</v>
       </c>

--- a/BoM/Positional/t1-bom.xlsx
+++ b/BoM/Positional/t1-bom.xlsx
@@ -217,7 +217,7 @@
     <t>270.0000</t>
   </si>
   <si>
-    <t>Earth,Net-(U1-UCAP)</t>
+    <t>Net-(U1-UCAP),Earth</t>
   </si>
   <si>
     <t>3</t>
@@ -289,10 +289,10 @@
     <t>1.7500</t>
   </si>
   <si>
-    <t>+5V,/RESET2</t>
-  </si>
-  <si>
-    <t>RESET2</t>
+    <t>/RESET2,+5V</t>
+  </si>
+  <si>
+    <t>RESET2,+5V</t>
   </si>
   <si>
     <t>5</t>
@@ -412,10 +412,10 @@
     <t>6.7800</t>
   </si>
   <si>
-    <t>GND,+5V,/RESET2,/MOSI2,/MISO2,/SCK2</t>
-  </si>
-  <si>
-    <t>SCK2</t>
+    <t>GND,/MISO2,/RESET2,/SCK2,/MOSI2,+5V</t>
+  </si>
+  <si>
+    <t>MOSI2,+5V</t>
   </si>
   <si>
     <t>8</t>
@@ -454,7 +454,7 @@
     <t>11.8600</t>
   </si>
   <si>
-    <t>Net-(J3-Pin_2),Net-(J3-Pin_4),Net-(J3-Pin_5),Net-(J3-Pin_1),Net-(J3-Pin_3)</t>
+    <t>Net-(J3-Pin_3),Net-(J3-Pin_1),Net-(J3-Pin_2),Net-(J3-Pin_4),Net-(J3-Pin_5)</t>
   </si>
   <si>
     <t>9</t>
@@ -487,7 +487,7 @@
     <t>14.4000</t>
   </si>
   <si>
-    <t>Net-(J6-Pin_4),Net-(J6-Pin_2),Net-(J6-Pin_3),Net-(J6-Pin_1),Net-(J6-Pin_5),Net-(J6-Pin_6)</t>
+    <t>Net-(J6-Pin_1),Net-(J6-Pin_2),Net-(J6-Pin_3),Net-(J6-Pin_5),Net-(J6-Pin_6),Net-(J6-Pin_4)</t>
   </si>
   <si>
     <t>10</t>
@@ -616,7 +616,7 @@
     <t>10.1000</t>
   </si>
   <si>
-    <t>Net-(J3-Pin_2),Net-(J4-Pin_1),Net-(J4-Pin_3),/SCK2,Net-(J6-Pin_2),/DTR,Net-(J4-Pin_4),unconnected-(U1-PB0-Pad14),/MISO2,/TXLED,Net-(J3-Pin_1),GND,Net-(U1-XTAL1),Net-(J6-Pin_3),/RESET2,Net-(U1-PC0{slash}XTAL2),Net-(J3-Pin_4),/MOSI2,Net-(J3-Pin_5),Net-(U1-D+),Net-(J4-Pin_2),Net-(J6-Pin_6),Net-(U1-UCAP),VBUS,Net-(J6-Pin_4),+5V,Net-(J6-Pin_5),Net-(U1-D-),Earth,Net-(J3-Pin_3),/RXLED</t>
+    <t>GND,Net-(J3-Pin_3),Net-(J3-Pin_4),Net-(J6-Pin_5),Net-(J6-Pin_4),Net-(J4-Pin_3),VBUS,Net-(J4-Pin_1),Net-(J6-Pin_2),/TXLED,/RESET2,Net-(U1-D-),Net-(U1-PC0{slash}XTAL2),/MISO2,Net-(J6-Pin_3),unconnected-(U1-PB0-Pad14),/MOSI2,Net-(J4-Pin_4),Net-(J3-Pin_1),Net-(J3-Pin_2),+5V,Net-(J6-Pin_6),Net-(U1-D+),Earth,Net-(J4-Pin_2),/DTR,/SCK2,Net-(U1-XTAL1),Net-(J3-Pin_5),Net-(U1-UCAP),/RXLED</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -694,7 +694,7 @@
     <t>no</t>
   </si>
   <si>
-    <t>GND,Net-(U1-XTAL1)</t>
+    <t>Net-(U1-XTAL1),GND</t>
   </si>
   <si>
     <t>Resettable fuse, polymeric positive temperature coefficient</t>
@@ -724,7 +724,7 @@
     <t>3.4000</t>
   </si>
   <si>
-    <t>Net-(J2-VBUS),VBUS</t>
+    <t>VBUS,Net-(J2-VBUS)</t>
   </si>
   <si>
     <t>Ferrite bead</t>
@@ -769,7 +769,7 @@
     <t>-95.2500</t>
   </si>
   <si>
-    <t>Net-(J4-Pin_4),Net-(J4-Pin_2),Net-(J4-Pin_1),Net-(J4-Pin_3)</t>
+    <t>Net-(J4-Pin_1),Net-(J4-Pin_3),Net-(J4-Pin_4),Net-(J4-Pin_2)</t>
   </si>
   <si>
     <t>USB Type B connector</t>
@@ -802,7 +802,7 @@
     <t>16.0000</t>
   </si>
   <si>
-    <t>Net-(J2-Shield),Net-(J2-D+),Net-(J2-VBUS),Earth,Net-(J2-D-)</t>
+    <t>Net-(J2-D+),Net-(J2-VBUS),Net-(J2-D-),Net-(J2-Shield),Earth</t>
   </si>
   <si>
     <t>R1 R2</t>
@@ -2880,7 +2880,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="105" customHeight="1">
+    <row r="21" spans="1:32" ht="120" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>185</v>
       </c>

--- a/BoM/Positional/t1-bom.xlsx
+++ b/BoM/Positional/t1-bom.xlsx
@@ -190,7 +190,7 @@
     <t>1.4000</t>
   </si>
   <si>
-    <t>GND,+5V</t>
+    <t>+5V,GND</t>
   </si>
   <si>
     <t>Default</t>
@@ -217,7 +217,7 @@
     <t>270.0000</t>
   </si>
   <si>
-    <t>Net-(U1-UCAP),Earth</t>
+    <t>Earth,Net-(U1-UCAP)</t>
   </si>
   <si>
     <t>3</t>
@@ -289,10 +289,10 @@
     <t>1.7500</t>
   </si>
   <si>
-    <t>/RESET2,+5V</t>
-  </si>
-  <si>
-    <t>RESET2,+5V</t>
+    <t>+5V,/RESET2</t>
+  </si>
+  <si>
+    <t>RESET2</t>
   </si>
   <si>
     <t>5</t>
@@ -325,10 +325,10 @@
     <t>-74.9500</t>
   </si>
   <si>
-    <t>Net-(D2-A),/RXLED</t>
-  </si>
-  <si>
-    <t>RXLED</t>
+    <t>/RXLED,Net-(D2-A)</t>
+  </si>
+  <si>
+    <t>RXLED,Net-(D2-A)</t>
   </si>
   <si>
     <t>6</t>
@@ -412,10 +412,10 @@
     <t>6.7800</t>
   </si>
   <si>
-    <t>GND,/MISO2,/RESET2,/SCK2,/MOSI2,+5V</t>
-  </si>
-  <si>
-    <t>MOSI2,+5V</t>
+    <t>+5V,/SCK2,/RESET2,/MISO2,GND,/MOSI2</t>
+  </si>
+  <si>
+    <t>MOSI2</t>
   </si>
   <si>
     <t>8</t>
@@ -454,7 +454,7 @@
     <t>11.8600</t>
   </si>
   <si>
-    <t>Net-(J3-Pin_3),Net-(J3-Pin_1),Net-(J3-Pin_2),Net-(J3-Pin_4),Net-(J3-Pin_5)</t>
+    <t>Net-(J3-Pin_5),Net-(J3-Pin_1),Net-(J3-Pin_3),Net-(J3-Pin_2),Net-(J3-Pin_4)</t>
   </si>
   <si>
     <t>9</t>
@@ -487,7 +487,7 @@
     <t>14.4000</t>
   </si>
   <si>
-    <t>Net-(J6-Pin_1),Net-(J6-Pin_2),Net-(J6-Pin_3),Net-(J6-Pin_5),Net-(J6-Pin_6),Net-(J6-Pin_4)</t>
+    <t>Net-(J6-Pin_5),Net-(J6-Pin_3),Net-(J6-Pin_1),Net-(J6-Pin_6),Net-(J6-Pin_2),Net-(J6-Pin_4)</t>
   </si>
   <si>
     <t>10</t>
@@ -616,7 +616,7 @@
     <t>10.1000</t>
   </si>
   <si>
-    <t>GND,Net-(J3-Pin_3),Net-(J3-Pin_4),Net-(J6-Pin_5),Net-(J6-Pin_4),Net-(J4-Pin_3),VBUS,Net-(J4-Pin_1),Net-(J6-Pin_2),/TXLED,/RESET2,Net-(U1-D-),Net-(U1-PC0{slash}XTAL2),/MISO2,Net-(J6-Pin_3),unconnected-(U1-PB0-Pad14),/MOSI2,Net-(J4-Pin_4),Net-(J3-Pin_1),Net-(J3-Pin_2),+5V,Net-(J6-Pin_6),Net-(U1-D+),Earth,Net-(J4-Pin_2),/DTR,/SCK2,Net-(U1-XTAL1),Net-(J3-Pin_5),Net-(U1-UCAP),/RXLED</t>
+    <t>Net-(U1-D-),/DTR,Earth,Net-(J4-Pin_4),Net-(J6-Pin_4),/MISO2,Net-(U1-PC0{slash}XTAL2),+5V,VBUS,Net-(J6-Pin_5),/SCK2,Net-(J4-Pin_3),Net-(J3-Pin_2),Net-(U1-XTAL1),Net-(J3-Pin_5),Net-(J6-Pin_3),Net-(J6-Pin_6),Net-(J4-Pin_1),/RESET2,Net-(J3-Pin_3),Net-(J4-Pin_2),Net-(J3-Pin_4),unconnected-(U1-PB0-Pad14),Net-(U1-D+),/RXLED,Net-(J3-Pin_1),Net-(U1-UCAP),Net-(J6-Pin_2),GND,/TXLED,/MOSI2</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -649,7 +649,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>9.0.1</t>
+    <t>9.0.6+1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -694,7 +694,7 @@
     <t>no</t>
   </si>
   <si>
-    <t>Net-(U1-XTAL1),GND</t>
+    <t>GND,Net-(U1-XTAL1)</t>
   </si>
   <si>
     <t>Resettable fuse, polymeric positive temperature coefficient</t>
@@ -802,7 +802,7 @@
     <t>16.0000</t>
   </si>
   <si>
-    <t>Net-(J2-D+),Net-(J2-VBUS),Net-(J2-D-),Net-(J2-Shield),Earth</t>
+    <t>Earth,Net-(J2-VBUS),Net-(J2-D-),Net-(J2-D+),Net-(J2-Shield)</t>
   </si>
   <si>
     <t>R1 R2</t>
@@ -817,7 +817,7 @@
     <t>-86.1060</t>
   </si>
   <si>
-    <t>Net-(U1-D+),Net-(J2-D+)</t>
+    <t>Net-(J2-D+),Net-(U1-D+)</t>
   </si>
   <si>
     <t>R3</t>
@@ -1486,18 +1486,14 @@
     <col min="16" max="16" width="31.7109375" customWidth="1"/>
     <col min="17" max="17" width="29.7109375" customWidth="1"/>
     <col min="18" max="18" width="60.7109375" customWidth="1"/>
-    <col min="19" max="19" width="21.7109375" customWidth="1"/>
-    <col min="20" max="20" width="21.7109375" customWidth="1"/>
+    <col min="19" max="20" width="21.7109375" customWidth="1"/>
     <col min="21" max="21" width="23.7109375" customWidth="1"/>
-    <col min="22" max="22" width="24.7109375" customWidth="1"/>
-    <col min="23" max="23" width="24.7109375" customWidth="1"/>
+    <col min="22" max="23" width="24.7109375" customWidth="1"/>
     <col min="24" max="24" width="27.7109375" customWidth="1"/>
     <col min="25" max="25" width="28.7109375" customWidth="1"/>
-    <col min="26" max="26" width="26.7109375" customWidth="1"/>
-    <col min="27" max="27" width="26.7109375" customWidth="1"/>
+    <col min="26" max="27" width="26.7109375" customWidth="1"/>
     <col min="28" max="28" width="24.7109375" customWidth="1"/>
-    <col min="29" max="29" width="60.7109375" customWidth="1"/>
-    <col min="30" max="30" width="60.7109375" customWidth="1"/>
+    <col min="29" max="30" width="60.7109375" customWidth="1"/>
     <col min="31" max="31" width="19.7109375" customWidth="1"/>
     <col min="32" max="32" width="21.7109375" customWidth="1"/>
   </cols>
@@ -2880,7 +2876,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="120" customHeight="1">
+    <row r="21" spans="1:32" ht="105" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>185</v>
       </c>
@@ -2969,7 +2965,7 @@
         <v>198</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AE21" s="6" t="s">
         <v>57</v>
@@ -3010,25 +3006,20 @@
     <col min="9" max="9" width="26.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="12" max="13" width="19.7109375" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" customWidth="1"/>
     <col min="15" max="15" width="16.7109375" customWidth="1"/>
     <col min="16" max="16" width="31.7109375" customWidth="1"/>
     <col min="17" max="17" width="29.7109375" customWidth="1"/>
     <col min="18" max="18" width="60.7109375" customWidth="1"/>
-    <col min="19" max="19" width="21.7109375" customWidth="1"/>
-    <col min="20" max="20" width="21.7109375" customWidth="1"/>
+    <col min="19" max="20" width="21.7109375" customWidth="1"/>
     <col min="21" max="21" width="23.7109375" customWidth="1"/>
-    <col min="22" max="22" width="24.7109375" customWidth="1"/>
-    <col min="23" max="23" width="24.7109375" customWidth="1"/>
+    <col min="22" max="23" width="24.7109375" customWidth="1"/>
     <col min="24" max="24" width="27.7109375" customWidth="1"/>
     <col min="25" max="25" width="28.7109375" customWidth="1"/>
-    <col min="26" max="26" width="26.7109375" customWidth="1"/>
-    <col min="27" max="27" width="26.7109375" customWidth="1"/>
+    <col min="26" max="27" width="26.7109375" customWidth="1"/>
     <col min="28" max="28" width="24.7109375" customWidth="1"/>
-    <col min="29" max="29" width="60.7109375" customWidth="1"/>
-    <col min="30" max="30" width="60.7109375" customWidth="1"/>
+    <col min="29" max="30" width="60.7109375" customWidth="1"/>
     <col min="31" max="31" width="19.7109375" customWidth="1"/>
     <col min="32" max="32" width="21.7109375" customWidth="1"/>
   </cols>
